--- a/nop-report/nop-report-core/src/test/resources/_vfs/nop/report/demo/test-bar-chart.xpt.xlsx
+++ b/nop-report/nop-report-core/src/test/resources/_vfs/nop/report/demo/test-bar-chart.xpt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-report\nop-report-core\src\test\resources\_vfs\nop\report\demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEDC0EEC-AEEE-4335-9C9B-CCBD3EC7951A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32336CC0-833D-47BB-98BF-83EF4DDC0B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{0EC344E0-0FC1-4487-98CF-41B24841200D}"/>
   </bookViews>
@@ -330,6 +330,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>MyCharts</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1813,7 +1839,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
